--- a/tests/server/fixtures/file-success/EOHHS-075-09302020-simple-v1.xlsx
+++ b/tests/server/fixtures/file-success/EOHHS-075-09302020-simple-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/usdr/cares-reporter/tests/server/fixtures/file-success/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959C6D56-00A7-7C45-850F-2926B0B43352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483E253-C352-7A4D-8084-7BF6EC8CA631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certification" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="344">
   <si>
     <t>Certification</t>
   </si>
@@ -582,9 +582,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>6/30/2020/</t>
   </si>
   <si>
     <t>Subrecipient Organization (Borrower)</t>
@@ -7956,36 +7953,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="18">
         <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="48">
         <v>2163121.9700000002</v>
@@ -7996,7 +7993,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="18">
         <v>75</v>
@@ -8013,13 +8010,13 @@
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="18"/>
     </row>
@@ -9042,13 +9039,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
@@ -10087,46 +10084,46 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="C1" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="49" t="s">
         <v>222</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>223</v>
       </c>
       <c r="O1" s="49"/>
       <c r="P1" s="49"/>
@@ -10143,7 +10140,7 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>7</v>
@@ -10155,34 +10152,34 @@
         <v>38</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>116</v>
       </c>
       <c r="G2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>226</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>227</v>
       </c>
       <c r="I2" s="50" t="s">
         <v>166</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L2" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="50" t="s">
-        <v>208</v>
-      </c>
       <c r="N2" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
@@ -10199,31 +10196,31 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>177</v>
@@ -10232,7 +10229,7 @@
         <v>177</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>177</v>
@@ -10243,105 +10240,105 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="G4" s="18">
         <v>2</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>176</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>242</v>
-      </c>
       <c r="L4" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="B5" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>247</v>
-      </c>
       <c r="L5" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="L6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="C7" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="C8" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
@@ -10349,7 +10346,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
@@ -10357,7 +10354,7 @@
         <v>84</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
@@ -10365,15 +10362,15 @@
         <v>89</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="C12" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
@@ -10381,7 +10378,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
@@ -10389,7 +10386,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
@@ -10397,36 +10394,36 @@
         <v>112</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="C16" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15" customHeight="1">
       <c r="C17" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15" customHeight="1">
       <c r="C18" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15" customHeight="1">
       <c r="C19" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>161</v>
@@ -10434,50 +10431,50 @@
     </row>
     <row r="20" spans="3:4" ht="15" customHeight="1">
       <c r="C20" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15" customHeight="1">
       <c r="C21" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15" customHeight="1">
       <c r="C22" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15" customHeight="1">
       <c r="C23" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15" customHeight="1">
       <c r="C24" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15" customHeight="1">
       <c r="C25" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>281</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15" customHeight="1">
@@ -10485,17 +10482,17 @@
         <v>163</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15" customHeight="1">
       <c r="D27" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15" customHeight="1">
       <c r="C28" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>56</v>
@@ -10503,102 +10500,102 @@
     </row>
     <row r="29" spans="3:4" ht="15" customHeight="1">
       <c r="D29" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1">
       <c r="D30" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1">
       <c r="D31" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15" customHeight="1">
       <c r="D32" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="15" customHeight="1">
       <c r="D33" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="15" customHeight="1">
       <c r="D34" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="15" customHeight="1">
       <c r="D35" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="15" customHeight="1">
       <c r="D36" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="15.75" customHeight="1">
       <c r="D37" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="15.75" customHeight="1">
       <c r="D38" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="4:4" ht="15.75" customHeight="1">
       <c r="D39" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="4:4" ht="15.75" customHeight="1">
       <c r="D40" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="4:4" ht="15.75" customHeight="1">
       <c r="D41" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="4:4" ht="15.75" customHeight="1">
       <c r="D42" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="4:4" ht="15.75" customHeight="1">
       <c r="D43" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="4:4" ht="15.75" customHeight="1">
       <c r="D44" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="4:4" ht="15.75" customHeight="1">
       <c r="D45" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="4:4" ht="15.75" customHeight="1">
       <c r="D46" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="4:4" ht="15.75" customHeight="1">
       <c r="D47" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="4:4" ht="15.75" customHeight="1">
       <c r="D48" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="4:4" ht="15.75" customHeight="1">
@@ -10608,62 +10605,62 @@
     </row>
     <row r="50" spans="4:4" ht="15.75" customHeight="1">
       <c r="D50" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="4:4" ht="15.75" customHeight="1">
       <c r="D51" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="4:4" ht="15.75" customHeight="1">
       <c r="D52" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="4:4" ht="15.75" customHeight="1">
       <c r="D53" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="4:4" ht="15.75" customHeight="1">
       <c r="D54" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="4:4" ht="15.75" customHeight="1">
       <c r="D55" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="4:4" ht="15.75" customHeight="1">
       <c r="D56" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="15.75" customHeight="1">
       <c r="D57" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="15.75" customHeight="1">
       <c r="D58" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="4:4" ht="15.75" customHeight="1">
       <c r="D59" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="4:4" ht="15.75" customHeight="1">
       <c r="D60" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="4:4" ht="15.75" customHeight="1">
       <c r="D61" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="4:4" ht="15.75" customHeight="1"/>
@@ -11628,12 +11625,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -11648,21 +11645,21 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="49"/>
       <c r="B7" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -11687,7 +11684,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="55"/>
@@ -11698,7 +11695,7 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="55"/>
@@ -11709,7 +11706,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="54">
@@ -11729,7 +11726,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="55"/>
@@ -11740,7 +11737,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -11751,7 +11748,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="54">
@@ -11771,7 +11768,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
@@ -11782,7 +11779,7 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
@@ -11793,7 +11790,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="54">
@@ -11813,7 +11810,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
@@ -11824,7 +11821,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="55"/>
@@ -11835,7 +11832,7 @@
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="54">
@@ -11855,7 +11852,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="55"/>
@@ -11866,7 +11863,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="55"/>
@@ -11877,7 +11874,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="54">
@@ -11897,7 +11894,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="54"/>
@@ -11908,7 +11905,7 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="56">
@@ -12934,7 +12931,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -14045,7 +14042,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>22</v>
@@ -14061,7 +14058,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>24</v>
@@ -14077,7 +14074,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -14093,7 +14090,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>30</v>
@@ -22969,7 +22966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -23178,8 +23177,8 @@
       <c r="V2" s="24">
         <v>43969.648842592593</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>178</v>
+      <c r="W2" s="8">
+        <v>44012</v>
       </c>
       <c r="X2" s="29">
         <v>585520</v>
@@ -27740,22 +27739,22 @@
         <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>122</v>
@@ -27764,10 +27763,10 @@
         <v>123</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>126</v>
@@ -27779,7 +27778,7 @@
         <v>128</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>131</v>
@@ -27788,13 +27787,13 @@
         <v>130</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="U1" s="21" t="s">
         <v>135</v>
@@ -27865,7 +27864,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="22">
         <v>50311.8</v>
@@ -27898,7 +27897,7 @@
         <v>50</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P2" s="22">
         <v>50311.8</v>
@@ -27921,7 +27920,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="30">
         <v>50529.599999999999</v>
@@ -27952,7 +27951,7 @@
         <v>50</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P3" s="30">
         <v>50529.599999999999</v>
@@ -27975,7 +27974,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="22">
         <v>50856.3</v>
@@ -28008,7 +28007,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P4" s="22">
         <v>50856.3</v>
@@ -30267,22 +30266,22 @@
         <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>130</v>
@@ -30368,7 +30367,7 @@
         <v>102</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="29">
         <v>32416.32</v>
@@ -30377,10 +30376,10 @@
         <v>43987.643125000002</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="H2" s="36">
         <v>75</v>
@@ -32768,13 +32767,13 @@
         <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>130</v>

--- a/tests/server/fixtures/file-success/EOHHS-075-09302020-simple-v1.xlsx
+++ b/tests/server/fixtures/file-success/EOHHS-075-09302020-simple-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/usdr/cares-reporter/tests/server/fixtures/file-success/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483E253-C352-7A4D-8084-7BF6EC8CA631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAE3380-6A93-264E-BC74-04BA1FE7286B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="345">
   <si>
     <t>Certification</t>
   </si>
@@ -1081,6 +1081,9 @@
   <si>
     <t>077</t>
   </si>
+  <si>
+    <t>6/30/2020/</t>
+  </si>
 </sst>
 </file>
 
@@ -1091,7 +1094,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1150,6 +1153,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1360,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1449,6 +1458,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22967,7 +22977,7 @@
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -23177,8 +23187,8 @@
       <c r="V2" s="24">
         <v>43969.648842592593</v>
       </c>
-      <c r="W2" s="8">
-        <v>44012</v>
+      <c r="W2" s="58" t="s">
+        <v>344</v>
       </c>
       <c r="X2" s="29">
         <v>585520</v>
